--- a/data/ronne_bank_gps.xlsx
+++ b/data/ronne_bank_gps.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shardy\Desktop\masters thesis proposal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shardy\Documents\GitHub\MSTFunctions\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6610"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6610" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="north" sheetId="1" r:id="rId1"/>
@@ -27,10 +27,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
   <si>
-    <t>long (m)</t>
+    <t>_y</t>
   </si>
   <si>
-    <t>lat (m)</t>
+    <t>_x</t>
   </si>
 </sst>
 </file>
@@ -350,234 +350,234 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>472842.79475982493</v>
+        <v>472.84279475982498</v>
       </c>
       <c r="B2">
-        <v>6087008.7336244499</v>
+        <v>6087.0087336244496</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>473707.42358078604</v>
+        <v>473.70742358078598</v>
       </c>
       <c r="B3">
-        <v>6087960.6986899497</v>
+        <v>6087.9606986899489</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>474091.70305676805</v>
+        <v>474.09170305676804</v>
       </c>
       <c r="B4">
-        <v>6087139.7379912594</v>
+        <v>6087.1397379912596</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>474572.05240174598</v>
+        <v>474.57205240174602</v>
       </c>
       <c r="B5">
-        <v>6088903.9301309995</v>
+        <v>6088.9039301310004</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>474947.59825327498</v>
+        <v>474.94759825327498</v>
       </c>
       <c r="B6">
-        <v>6088091.7030567601</v>
+        <v>6088.0917030567598</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>475331.87772925699</v>
+        <v>475.33187772925703</v>
       </c>
       <c r="B7">
-        <v>6087270.7423580699</v>
+        <v>6087.2707423580705</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>475445.41484716098</v>
+        <v>475.44541484716103</v>
       </c>
       <c r="B8">
-        <v>6089847.1615720494</v>
+        <v>6089.84716157205</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>475820.96069868997</v>
+        <v>475.82096069868999</v>
       </c>
       <c r="B9">
-        <v>6089034.93449781</v>
+        <v>6089.0349344978094</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>476196.50655021798</v>
+        <v>476.19650655021798</v>
       </c>
       <c r="B10">
-        <v>6088222.7074235799</v>
+        <v>6088.2227074235798</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>476572.05240174598</v>
+        <v>476.57205240174596</v>
       </c>
       <c r="B11">
-        <v>6087401.7467248896</v>
+        <v>6087.4017467248896</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>475925.76419213897</v>
+        <v>475.92576419213896</v>
       </c>
       <c r="B12">
-        <v>6091602.6200873302</v>
+        <v>6091.6026200873303</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>476301.31004366803</v>
+        <v>476.30131004366802</v>
       </c>
       <c r="B13">
-        <v>6090790.3930131001</v>
+        <v>6090.7903930131006</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>476685.58951964998</v>
+        <v>476.68558951964997</v>
       </c>
       <c r="B14">
-        <v>6089978.1659388607</v>
+        <v>6089.97816593886</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>477061.13537117903</v>
+        <v>477.06113537117903</v>
       </c>
       <c r="B15">
-        <v>6089165.9388646204</v>
+        <v>6089.1659388646203</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>477436.68122270703</v>
+        <v>477.43668122270702</v>
       </c>
       <c r="B16">
-        <v>6088344.9781659301</v>
+        <v>6088.3449781659301</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>477812.22707423498</v>
+        <v>477.81222707423501</v>
       </c>
       <c r="B17">
-        <v>6087532.7510917</v>
+        <v>6087.5327510917004</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>477165.93886462803</v>
+        <v>477.165938864628</v>
       </c>
       <c r="B18">
-        <v>6091733.6244541397</v>
+        <v>6091.7336244541393</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>477541.48471615696</v>
+        <v>477.54148471615696</v>
       </c>
       <c r="B19">
-        <v>6090921.3973799106</v>
+        <v>6090.9213973799106</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20">
-        <v>477925.76419213903</v>
+        <v>477.92576419213901</v>
       </c>
       <c r="B20">
-        <v>6090109.1703056702</v>
+        <v>6090.10917030567</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21">
-        <v>478301.31004366797</v>
+        <v>478.30131004366797</v>
       </c>
       <c r="B21">
-        <v>6089296.9432314392</v>
+        <v>6089.2969432314385</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22">
-        <v>478676.85589519597</v>
+        <v>478.67685589519596</v>
       </c>
       <c r="B22">
-        <v>6088475.9825327499</v>
+        <v>6088.4759825327501</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23">
-        <v>479052.40174672398</v>
+        <v>479.05240174672394</v>
       </c>
       <c r="B23">
-        <v>6087663.7554585105</v>
+        <v>6087.6637554585113</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24">
-        <v>479165.93886462797</v>
+        <v>479.16593886462795</v>
       </c>
       <c r="B24">
-        <v>6090240.1746724797</v>
+        <v>6090.24017467248</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25">
-        <v>479550.21834061097</v>
+        <v>479.55021834061097</v>
       </c>
       <c r="B25">
-        <v>6089419.2139737904</v>
+        <v>6089.4192139737897</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26">
-        <v>479925.76419213897</v>
+        <v>479.92576419213896</v>
       </c>
       <c r="B26">
-        <v>6088606.9868995594</v>
+        <v>6088.6069868995601</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27">
-        <v>480301.31004366803</v>
+        <v>480.30131004366802</v>
       </c>
       <c r="B27">
-        <v>6087794.75982532</v>
+        <v>6087.7947598253195</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28">
-        <v>481165.93886462803</v>
+        <v>481.165938864628</v>
       </c>
       <c r="B28">
-        <v>6088737.9912663708</v>
+        <v>6088.73799126637</v>
       </c>
     </row>
   </sheetData>
@@ -589,442 +589,442 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>472686.54049002298</v>
+        <v>465.53514981841698</v>
       </c>
       <c r="B2">
-        <v>6092455.85912521</v>
+        <v>6076.1216711412699</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>472974.38938410999</v>
+        <v>466.10291879020201</v>
       </c>
       <c r="B3">
-        <v>6091842.2864825502</v>
+        <v>6074.9046175408603</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>473262.23827819695</v>
+        <v>466.67066901198001</v>
       </c>
       <c r="B4">
-        <v>6091221.1388689997</v>
+        <v>6073.6725451845805</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>473542.51220138703</v>
+        <v>467.22343797790506</v>
       </c>
       <c r="B5">
-        <v>6090599.9912554398</v>
+        <v>6072.4404868908096</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>473830.36109547404</v>
+        <v>467.79120694968998</v>
       </c>
       <c r="B6">
-        <v>6089986.41861278</v>
+        <v>6071.2234332904</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>473618.26191035699</v>
+        <v>467.37808803831501</v>
       </c>
       <c r="B7">
-        <v>6092554.33374687</v>
+        <v>6076.3151852793699</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>473906.11080444395</v>
+        <v>467.94585701009999</v>
       </c>
       <c r="B8">
-        <v>6091940.7611042103</v>
+        <v>6075.0981316789503</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>474193.95969853102</v>
+        <v>468.51360723187696</v>
       </c>
       <c r="B9">
-        <v>6091319.6134906607</v>
+        <v>6073.8660593226796</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>474481.80859261804</v>
+        <v>469.08137620366199</v>
       </c>
       <c r="B10">
-        <v>6090706.040848</v>
+        <v>6072.64900572226</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>474769.65748670505</v>
+        <v>469.64912642543999</v>
       </c>
       <c r="B11">
-        <v>6090084.8932344401</v>
+        <v>6071.4169333659802</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>475049.93140989501</v>
+        <v>470.20191414137196</v>
       </c>
       <c r="B12">
-        <v>6089471.3205917804</v>
+        <v>6070.1998938280794</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>475345.35527487902</v>
+        <v>470.78466436900896</v>
       </c>
       <c r="B13">
-        <v>6088857.7479491206</v>
+        <v>6068.9828261651601</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>475625.62919806899</v>
+        <v>471.33745208494202</v>
       </c>
       <c r="B14">
-        <v>6088244.1753064599</v>
+        <v>6067.7657866272602</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>475913.478092156</v>
+        <v>471.90520230671905</v>
       </c>
       <c r="B15">
-        <v>6087623.0276929103</v>
+        <v>6066.5337142709795</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>476201.32698624296</v>
+        <v>472.47295252849699</v>
       </c>
       <c r="B16">
-        <v>6087001.8800793495</v>
+        <v>6065.3016419146998</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>474565.13327248499</v>
+        <v>469.25098876991706</v>
       </c>
       <c r="B17">
-        <v>6092652.8083685292</v>
+        <v>6076.5086712924494</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>474845.40719567495</v>
+        <v>469.80377648585005</v>
       </c>
       <c r="B18">
-        <v>6092039.2357258806</v>
+        <v>6075.2916317545405</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>475133.25608976197</v>
+        <v>470.37154545763497</v>
       </c>
       <c r="B19">
-        <v>6091425.6630832208</v>
+        <v>6074.07457815413</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20">
-        <v>475421.10498384904</v>
+        <v>470.939295679412</v>
       </c>
       <c r="B20">
-        <v>6090804.5154696601</v>
+        <v>6072.8425057978502</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21">
-        <v>475708.95387793606</v>
+        <v>471.50704590118897</v>
       </c>
       <c r="B21">
-        <v>6090183.3678561002</v>
+        <v>6071.6104334415704</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22">
-        <v>475989.22780112695</v>
+        <v>472.05983361712197</v>
       </c>
       <c r="B22">
-        <v>6089569.7952134404</v>
+        <v>6070.3933939036597</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23">
-        <v>476277.07669521397</v>
+        <v>472.627602588907</v>
       </c>
       <c r="B23">
-        <v>6088956.22257079</v>
+        <v>6069.1763403032501</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24">
-        <v>476564.92558930098</v>
+        <v>473.19537156069202</v>
       </c>
       <c r="B24">
-        <v>6088342.6499281302</v>
+        <v>6067.9592867028405</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25">
-        <v>476845.199512491</v>
+        <v>473.74814052661696</v>
       </c>
       <c r="B25">
-        <v>6087721.5023145694</v>
+        <v>6066.7272284090695</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26">
-        <v>475512.00463461399</v>
+        <v>471.12388950151899</v>
       </c>
       <c r="B26">
-        <v>6092751.2829901995</v>
+        <v>6076.7021573055308</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27">
-        <v>475792.27855780395</v>
+        <v>471.67667721745198</v>
       </c>
       <c r="B27">
-        <v>6092137.7103475397</v>
+        <v>6075.4851177676201</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28">
-        <v>476072.55248099403</v>
+        <v>472.22944618337704</v>
       </c>
       <c r="B28">
-        <v>6091516.5627339799</v>
+        <v>6074.25305947385</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29">
-        <v>476360.40137508104</v>
+        <v>472.79719640515401</v>
       </c>
       <c r="B29">
-        <v>6090895.41512042</v>
+        <v>6073.0209871175703</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30">
-        <v>476648.250269168</v>
+        <v>473.36496537693904</v>
       </c>
       <c r="B30">
-        <v>6090281.8424777705</v>
+        <v>6071.8039335171597</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31">
-        <v>476936.09916325501</v>
+        <v>473.93273434872401</v>
       </c>
       <c r="B31">
-        <v>6089668.2698351108</v>
+        <v>6070.5868799167501</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32">
-        <v>477223.94805734203</v>
+        <v>474.50050332050904</v>
       </c>
       <c r="B32">
-        <v>6089054.6971924501</v>
+        <v>6069.3698263163296</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33">
-        <v>477504.22198053199</v>
+        <v>475.05329103644101</v>
       </c>
       <c r="B33">
-        <v>6088441.1245497894</v>
+        <v>6068.1527867784307</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34">
-        <v>476443.726054948</v>
+        <v>472.96682772141702</v>
       </c>
       <c r="B34">
-        <v>6092849.7576118596</v>
+        <v>6076.8956714436199</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35">
-        <v>476723.99997813802</v>
+        <v>473.51961543734899</v>
       </c>
       <c r="B35">
-        <v>6092236.1849691998</v>
+        <v>6075.6786319057101</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36">
-        <v>477011.84887222503</v>
+        <v>474.08738440913396</v>
       </c>
       <c r="B36">
-        <v>6091622.6123265401</v>
+        <v>6074.4615783052996</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37">
-        <v>477307.27273720899</v>
+        <v>474.67009713675606</v>
       </c>
       <c r="B37">
-        <v>6090993.8897420894</v>
+        <v>6073.2144731306507</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38">
-        <v>477587.54666039901</v>
+        <v>475.22288485268905</v>
       </c>
       <c r="B38">
-        <v>6090380.3170994297</v>
+        <v>6071.99743359274</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39">
-        <v>477875.39555448602</v>
+        <v>475.79067257448105</v>
       </c>
       <c r="B39">
-        <v>6089774.3194276597</v>
+        <v>6070.7953987482006</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40">
-        <v>478163.24444857304</v>
+        <v>476.35842279625803</v>
       </c>
       <c r="B40">
-        <v>6089153.1718141101</v>
+        <v>6069.5633263919199</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41">
-        <v>477390.59741707699</v>
+        <v>474.83972845301798</v>
       </c>
       <c r="B41">
-        <v>6092948.2322335206</v>
+        <v>6077.0891574567004</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42">
-        <v>477670.87134026695</v>
+        <v>475.39251616895103</v>
       </c>
       <c r="B42">
-        <v>6092334.6595908599</v>
+        <v>6075.8721179187896</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43">
-        <v>477951.14526345703</v>
+        <v>475.945285134877</v>
       </c>
       <c r="B43">
-        <v>6091713.5119773</v>
+        <v>6074.6400596250205</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44">
-        <v>478238.99415754399</v>
+        <v>476.513054106661</v>
       </c>
       <c r="B44">
-        <v>6091099.9393346403</v>
+        <v>6073.42300602461</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45">
-        <v>478526.843051631</v>
+        <v>477.080804328439</v>
       </c>
       <c r="B45">
-        <v>6090478.7917210897</v>
+        <v>6072.1909336683302</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46">
-        <v>478807.11697482096</v>
+        <v>477.63359204437103</v>
       </c>
       <c r="B46">
-        <v>6089865.21907843</v>
+        <v>6070.9738941304195</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47">
-        <v>478329.893808308</v>
+        <v>476.69764792876805</v>
       </c>
       <c r="B47">
-        <v>6093046.7068551797</v>
+        <v>6077.2826575322797</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48">
-        <v>478617.74270239501</v>
+        <v>477.26541690055296</v>
       </c>
       <c r="B48">
-        <v>6092433.13421252</v>
+        <v>6076.0656039318701</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49">
-        <v>478898.01662558503</v>
+        <v>477.81818586647802</v>
       </c>
       <c r="B49">
-        <v>6091811.9865989601</v>
+        <v>6074.8335456381001</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50">
-        <v>479185.86551967205</v>
+        <v>478.38595483826293</v>
       </c>
       <c r="B50">
-        <v>6091198.4139563097</v>
+        <v>6073.6164920376905</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51">
-        <v>479473.71441375901</v>
+        <v>478.95372381004802</v>
       </c>
       <c r="B51">
-        <v>6090584.8413136499</v>
+        <v>6072.39943843728</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52">
-        <v>479549.46412272897</v>
+        <v>479.10835512045099</v>
       </c>
       <c r="B52">
-        <v>6092531.60883418</v>
+        <v>6076.2591180699601</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53">
-        <v>479829.73804591905</v>
+        <v>479.66112408637593</v>
       </c>
       <c r="B53">
-        <v>6091910.4612206304</v>
+        <v>6075.0270597761901</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54">
-        <v>480125.16191090306</v>
+        <v>480.24385556400597</v>
       </c>
       <c r="B54">
-        <v>6091289.3136070697</v>
+        <v>6073.7949733574105</v>
       </c>
     </row>
   </sheetData>
